--- a/fastqFiles/fastq_314.xlsx
+++ b/fastqFiles/fastq_314.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBBA249-BB05-E34B-85B2-4F21C126B688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06120E-DCE8-A546-A854-74910E32B598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>libraryDate</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,7 +551,7 @@
         <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -568,7 +571,7 @@
         <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -588,7 +591,7 @@
         <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -608,7 +611,7 @@
         <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -628,7 +631,7 @@
         <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -648,7 +651,7 @@
         <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -668,7 +671,7 @@
         <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -688,7 +691,7 @@
         <v>314</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -708,7 +711,7 @@
         <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -728,7 +731,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -748,7 +751,7 @@
         <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -768,7 +771,7 @@
         <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -788,7 +791,7 @@
         <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -808,7 +811,7 @@
         <v>314</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -828,7 +831,7 @@
         <v>314</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -848,7 +851,7 @@
         <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -868,7 +871,7 @@
         <v>314</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -888,7 +891,7 @@
         <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -908,7 +911,7 @@
         <v>314</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -928,7 +931,7 @@
         <v>314</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -948,7 +951,7 @@
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -968,7 +971,7 @@
         <v>314</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
@@ -988,7 +991,7 @@
         <v>314</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -1008,7 +1011,7 @@
         <v>314</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>

--- a/fastqFiles/fastq_314.xlsx
+++ b/fastqFiles/fastq_314.xlsx
@@ -49,49 +49,49 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_1_sequence_C1n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_1_sequence_C2n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_1_sequence_F1n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_1_sequence_F2n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_1_sequence_W2n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_2_sequence_C1p.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_2_sequence_C2p.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_2_sequence_F1p.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_2_sequence_F2p.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_2_sequence_W2p.fastq.gz</t>
+    <t xml:space="preserve">s_1_sequence_C1n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_1_sequence_C2n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_1_sequence_F1n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_1_sequence_F2n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_1_sequence_W2n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_2_sequence_C1p.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_2_sequence_C2p.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_2_sequence_F1p.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_2_sequence_F2p.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_2_sequence_W2p.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">04.20.10</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_3_sequence_G1n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_3_sequence_G2n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_3_sequence_H1n.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_314_samples/s_3_sequence_H2n.fastq.gz</t>
+    <t xml:space="preserve">s_3_sequence_G1n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_3_sequence_G2n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_3_sequence_H1n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_3_sequence_H2n.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">s_3_sequence_W4n.fastq.gz</t>
@@ -240,8 +240,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_314.xlsx
+++ b/fastqFiles/fastq_314.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">

--- a/fastqFiles/fastq_314.xlsx
+++ b/fastqFiles/fastq_314.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">s_1_sequence_C1n.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[128]</t>
   </si>
   <si>
     <t xml:space="preserve">s_1_sequence_C2n.fastq.gz</t>
@@ -231,7 +234,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -290,11 +293,11 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -311,16 +314,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -337,16 +340,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -363,16 +366,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -389,16 +392,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -415,16 +418,16 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -441,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -467,16 +470,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -493,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
@@ -519,18 +522,18 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>10</v>
@@ -545,18 +548,18 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>10</v>
@@ -571,18 +574,18 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>10</v>
@@ -597,18 +600,18 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>10</v>
@@ -623,18 +626,18 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>10</v>
@@ -649,18 +652,18 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>10</v>
@@ -675,18 +678,18 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
@@ -701,18 +704,18 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
@@ -727,18 +730,18 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
@@ -753,18 +756,18 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>10</v>
@@ -779,16 +782,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>9</v>
       </c>
@@ -805,16 +808,16 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>9</v>
       </c>
@@ -831,18 +834,18 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>10</v>
@@ -857,18 +860,18 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>10</v>
@@ -883,13 +886,13 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>128</v>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
